--- a/programas/Projects/6_regresionLineal/6_regresionLineal_v2/RegresMedia_.xlsx
+++ b/programas/Projects/6_regresionLineal/6_regresionLineal_v2/RegresMedia_.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -481,25 +485,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HUM</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2022-09-14</t>
-        </is>
+          <t>EURJPY=X</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>44899.47380636622</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3593756119995529</v>
+        <v>0.06780667291187896</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1329464406803462</v>
+        <v>0.05114009364683138</v>
       </c>
       <c r="G2" t="n">
-        <v>458.8500061035156</v>
+        <v>142.2839965820312</v>
       </c>
       <c r="H2" t="n">
-        <v>24.84409409872853</v>
+        <v>3.604931650593045</v>
       </c>
     </row>
   </sheetData>
